--- a/Stats/2022_MixedMasters_PairStats.xlsx
+++ b/Stats/2022_MixedMasters_PairStats.xlsx
@@ -13,18 +13,20 @@
     <sheet name="GA" sheetId="4" r:id="rId4"/>
     <sheet name="BRK" sheetId="5" r:id="rId5"/>
     <sheet name="BRK%" sheetId="6" r:id="rId6"/>
-    <sheet name="BAA" sheetId="7" r:id="rId7"/>
-    <sheet name="HLD" sheetId="8" r:id="rId8"/>
-    <sheet name="HLD%" sheetId="9" r:id="rId9"/>
-    <sheet name="HAA" sheetId="10" r:id="rId10"/>
-    <sheet name="TAA" sheetId="11" r:id="rId11"/>
+    <sheet name="BRK%-AVG" sheetId="7" r:id="rId7"/>
+    <sheet name="BAA" sheetId="8" r:id="rId8"/>
+    <sheet name="HLD" sheetId="9" r:id="rId9"/>
+    <sheet name="HLD%" sheetId="10" r:id="rId10"/>
+    <sheet name="HLD%-AVG" sheetId="11" r:id="rId11"/>
+    <sheet name="HAA" sheetId="12" r:id="rId12"/>
+    <sheet name="TAA" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="15">
   <si>
     <t>Jake Cmelik</t>
   </si>
@@ -1294,49 +1296,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.142857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>-0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>-0.4285714285714284</v>
+        <v>0.375</v>
       </c>
       <c r="I2">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="K2">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L2">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>-0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
-        <v>-0.4285714285714284</v>
+        <v>0.375</v>
       </c>
       <c r="O2">
-        <v>-1.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1344,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="C3">
-        <v>-0.4285714285714284</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>1.285714285714286</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F3">
-        <v>0.2857142857142856</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>-0.7142857142857142</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="H3">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="I3">
-        <v>-2.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.110223024625157E-16</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K3">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="L3">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="N3">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>0.1428571428571432</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="P3">
-        <v>-0.1428571428571428</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1394,49 +1396,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4">
-        <v>1.285714285714286</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D4">
-        <v>1.142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F4">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H4">
-        <v>-0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="I4">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>1.142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K4">
-        <v>-0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L4">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="N4">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="O4">
-        <v>0.1428571428571432</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="P4">
-        <v>2.775557561562891E-16</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1444,49 +1446,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F5">
-        <v>1.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H5">
-        <v>1.110223024625157E-16</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I5">
-        <v>-0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K5">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>1.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.714285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="N5">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="P5">
-        <v>1.428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1494,49 +1496,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>0.2857142857142856</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6">
-        <v>1.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.4285714285714287</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I6">
-        <v>-0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>-0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P6">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1544,49 +1546,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>-0.7142857142857142</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D7">
-        <v>1.142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F7">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1428571428571428</v>
+        <v>0.4375</v>
       </c>
       <c r="H7">
-        <v>0.2857142857142861</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I7">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J7">
-        <v>-0.5714285714285713</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K7">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="L7">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.5714285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
         <v>0.4285714285714285</v>
       </c>
-      <c r="O7">
-        <v>1.110223024625157E-16</v>
-      </c>
       <c r="P7">
-        <v>-0.1428571428571427</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1594,49 +1596,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4285714285714284</v>
+        <v>0.375</v>
       </c>
       <c r="C8">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>-0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="E8">
-        <v>1.110223024625157E-16</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F8">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2857142857142861</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H8">
-        <v>-1.285714285714285</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="I8">
-        <v>-0.9999999999999998</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J8">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="K8">
-        <v>-2.428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="L8">
-        <v>0.8571428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="M8">
-        <v>-0.7142857142857142</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="N8">
-        <v>-1.857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P8">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1644,49 +1646,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>-2.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="E9">
-        <v>-0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H9">
-        <v>-0.9999999999999998</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I9">
-        <v>-2.285714285714286</v>
+        <v>0.2</v>
       </c>
       <c r="J9">
-        <v>-0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K9">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="L9">
-        <v>0.1428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="N9">
-        <v>-0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O9">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P9">
-        <v>-0.8571428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1694,49 +1696,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <v>1.110223024625157E-16</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>1.142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F10">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>-0.5714285714285713</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H10">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="I10">
-        <v>-0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J10">
-        <v>0.5714285714285716</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K10">
-        <v>-0.4285714285714283</v>
+        <v>0.375</v>
       </c>
       <c r="L10">
-        <v>1.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="N10">
-        <v>0.7142857142857145</v>
+        <v>0.5</v>
       </c>
       <c r="O10">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="P10">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1744,49 +1746,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C11">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>-0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E11">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
-        <v>-0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
-        <v>-2.428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="I11">
-        <v>-1.142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="J11">
-        <v>-0.4285714285714283</v>
+        <v>0.375</v>
       </c>
       <c r="K11">
-        <v>-2.142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="N11">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="O11">
-        <v>-0.9999999999999999</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P11">
-        <v>-0.4285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1794,49 +1796,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E12">
-        <v>1.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>-0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
-        <v>0.8571428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="I12">
-        <v>0.1428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>1.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L12">
         <v>0.7142857142857143</v>
       </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
       <c r="M12">
-        <v>2</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N12">
-        <v>0.7142857142857142</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O12">
-        <v>1.285714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="P12">
-        <v>1.142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1844,49 +1846,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>1.142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E13">
-        <v>2.714285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="F13">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
-        <v>-0.7142857142857142</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I13">
-        <v>-0.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="J13">
-        <v>1.571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="K13">
-        <v>-1.428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M13">
-        <v>1.285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="N13">
-        <v>0.1428571428571432</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O13">
-        <v>0.7142857142857144</v>
+        <v>0.5</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1894,49 +1896,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.4285714285714284</v>
+        <v>0.375</v>
       </c>
       <c r="C14">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="I14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>0.25</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="N14">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H14">
-        <v>-1.857142857142857</v>
-      </c>
-      <c r="I14">
-        <v>-0.2857142857142857</v>
-      </c>
-      <c r="J14">
-        <v>0.7142857142857145</v>
-      </c>
-      <c r="K14">
-        <v>-1.428571428571428</v>
-      </c>
-      <c r="L14">
-        <v>0.7142857142857142</v>
-      </c>
-      <c r="M14">
-        <v>0.1428571428571432</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
-        <v>-0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="P14">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1944,49 +1946,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1428571428571432</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D15">
-        <v>0.1428571428571432</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E15">
-        <v>0.5714285714285716</v>
+        <v>0.5</v>
       </c>
       <c r="F15">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.110223024625157E-16</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I15">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>-0.9999999999999999</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L15">
-        <v>1.285714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="M15">
-        <v>0.7142857142857144</v>
+        <v>0.5</v>
       </c>
       <c r="N15">
-        <v>-0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="O15">
-        <v>-0.4285714285714284</v>
+        <v>0.4</v>
       </c>
       <c r="P15">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1994,49 +1996,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C16">
-        <v>-0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <v>2.775557561562891E-16</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E16">
-        <v>1.428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F16">
-        <v>-0.2857142857142856</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>-0.1428571428571427</v>
+        <v>0.4</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="I16">
-        <v>-0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K16">
-        <v>-0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.142857142857143</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N16">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="O16">
-        <v>-1.571428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P16">
-        <v>0.142857142857143</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -2104,6 +2106,1626 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="C2">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="D2">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="E2">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="F2">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="G2">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="H2">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="I2">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="J2">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="K2">
+        <v>-0.2619047619047619</v>
+      </c>
+      <c r="L2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M2">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="N2">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="O2">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="P2">
+        <v>-0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="C3">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="D3">
+        <v>0.1168831168831169</v>
+      </c>
+      <c r="E3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F3">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="G3">
+        <v>-0.0649350649350649</v>
+      </c>
+      <c r="H3">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="I3">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="L3">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="M3">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="N3">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="O3">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="P3">
+        <v>-0.02857142857142853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="C4">
+        <v>0.1168831168831169</v>
+      </c>
+      <c r="D4">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="E4">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="F4">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="G4">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="H4">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="I4">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="J4">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="K4">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="L4">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="M4">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="N4">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="O4">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="C5">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D5">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="E5">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G5">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="J5">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K5">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="L5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M5">
+        <v>0.2714285714285714</v>
+      </c>
+      <c r="N5">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="O5">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="P5">
+        <v>0.2380952380952381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="C6">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="D6">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="E6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F6">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="G6">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="H6">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="I6">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="J6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K6">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="L6">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="M6">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="N6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O6">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="P6">
+        <v>-0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="C7">
+        <v>-0.0649350649350649</v>
+      </c>
+      <c r="D7">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="E7">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F7">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="G7">
+        <v>0.008928571428571452</v>
+      </c>
+      <c r="H7">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="I7">
+        <v>-0.2619047619047619</v>
+      </c>
+      <c r="J7">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="K7">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="L7">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="M7">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="N7">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0.02857142857142853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="C8">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="D8">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="G8">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="H8">
+        <v>-0.07563025210084029</v>
+      </c>
+      <c r="I8">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="J8">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="K8">
+        <v>-0.3035714285714285</v>
+      </c>
+      <c r="L8">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="M8">
+        <v>-0.0649350649350649</v>
+      </c>
+      <c r="N8">
+        <v>-0.2063492063492063</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.07142857142857145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="C9">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="D9">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="E9">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="F9">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="G9">
+        <v>-0.2619047619047619</v>
+      </c>
+      <c r="H9">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="I9">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="J9">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="K9">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="L9">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="M9">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="N9">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="O9">
+        <v>-0.2619047619047619</v>
+      </c>
+      <c r="P9">
+        <v>-0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="E10">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F10">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G10">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="H10">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="I10">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="J10">
+        <v>0.03809523809523813</v>
+      </c>
+      <c r="K10">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="L10">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M10">
+        <v>0.1964285714285715</v>
+      </c>
+      <c r="N10">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="O10">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="P10">
+        <v>0.2380952380952381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.2619047619047619</v>
+      </c>
+      <c r="C11">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="D11">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="E11">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="F11">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="G11">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="H11">
+        <v>-0.3035714285714285</v>
+      </c>
+      <c r="I11">
+        <v>-0.2285714285714285</v>
+      </c>
+      <c r="J11">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="K11">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="L11">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="M11">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="N11">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="O11">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="P11">
+        <v>-0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C12">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="D12">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="E12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F12">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="G12">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="H12">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="I12">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="J12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K12">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="L12">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="M12">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="N12">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="O12">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="P12">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="C13">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="D13">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="E13">
+        <v>0.2714285714285714</v>
+      </c>
+      <c r="F13">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="G13">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="H13">
+        <v>-0.0649350649350649</v>
+      </c>
+      <c r="I13">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="J13">
+        <v>0.1964285714285715</v>
+      </c>
+      <c r="K13">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="L13">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="M13">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="N13">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="O13">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="P13">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.05357142857142855</v>
+      </c>
+      <c r="C14">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="D14">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="E14">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="F14">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G14">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="H14">
+        <v>-0.2063492063492063</v>
+      </c>
+      <c r="I14">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="J14">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="K14">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="L14">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="M14">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="P14">
+        <v>0.07142857142857145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="C15">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D15">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="E15">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="F15">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-0.2619047619047619</v>
+      </c>
+      <c r="J15">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="K15">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="L15">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="M15">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="N15">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="O15">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="P15">
+        <v>-0.2619047619047619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="C16">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="F16">
+        <v>-0.09523809523809523</v>
+      </c>
+      <c r="G16">
+        <v>-0.02857142857142853</v>
+      </c>
+      <c r="H16">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="I16">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="J16">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="K16">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="L16">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M16">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="N16">
+        <v>0.07142857142857145</v>
+      </c>
+      <c r="O16">
+        <v>-0.2619047619047619</v>
+      </c>
+      <c r="P16">
+        <v>0.01587301587301587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="C2">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="D2">
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="E2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F2">
+        <v>-0.2857142857142856</v>
+      </c>
+      <c r="G2">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="H2">
+        <v>-0.4285714285714284</v>
+      </c>
+      <c r="I2">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="J2">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="K2">
+        <v>-1.571428571428571</v>
+      </c>
+      <c r="L2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M2">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="N2">
+        <v>-0.4285714285714284</v>
+      </c>
+      <c r="O2">
+        <v>-1.285714285714286</v>
+      </c>
+      <c r="P2">
+        <v>-0.2857142857142856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="C3">
+        <v>-0.4285714285714284</v>
+      </c>
+      <c r="D3">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.2857142857142856</v>
+      </c>
+      <c r="G3">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="H3">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="I3">
+        <v>-2.571428571428571</v>
+      </c>
+      <c r="J3">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="K3">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="L3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="M3">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="N3">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="O3">
+        <v>0.1428571428571432</v>
+      </c>
+      <c r="P3">
+        <v>-0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="C4">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="D4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="H4">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="I4">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="J4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="K4">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="L4">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="M4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="N4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O4">
+        <v>0.1428571428571432</v>
+      </c>
+      <c r="P4">
+        <v>2.775557561562891E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="I5">
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="L5">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="M5">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="N5">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="O5">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="P5">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.2857142857142856</v>
+      </c>
+      <c r="C6">
+        <v>0.2857142857142856</v>
+      </c>
+      <c r="D6">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="E6">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="F6">
+        <v>0.4285714285714287</v>
+      </c>
+      <c r="G6">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="H6">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="I6">
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="J6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K6">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="L6">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="M6">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="N6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O6">
+        <v>-0.2857142857142856</v>
+      </c>
+      <c r="P6">
+        <v>-0.2857142857142856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="C7">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="D7">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="G7">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H7">
+        <v>0.2857142857142861</v>
+      </c>
+      <c r="I7">
+        <v>-1.571428571428571</v>
+      </c>
+      <c r="J7">
+        <v>-0.5714285714285713</v>
+      </c>
+      <c r="K7">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="L7">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="M7">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="N7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="O7">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="P7">
+        <v>-0.1428571428571427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.4285714285714284</v>
+      </c>
+      <c r="C8">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="D8">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="E8">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="F8">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G8">
+        <v>0.2857142857142861</v>
+      </c>
+      <c r="H8">
+        <v>-1.285714285714285</v>
+      </c>
+      <c r="I8">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="J8">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="K8">
+        <v>-2.428571428571428</v>
+      </c>
+      <c r="L8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M8">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="N8">
+        <v>-1.857142857142857</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="C9">
+        <v>-2.571428571428571</v>
+      </c>
+      <c r="D9">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="E9">
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="F9">
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="G9">
+        <v>-1.571428571428571</v>
+      </c>
+      <c r="H9">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="I9">
+        <v>-2.285714285714286</v>
+      </c>
+      <c r="J9">
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="K9">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="L9">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="M9">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="N9">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="O9">
+        <v>-1.571428571428571</v>
+      </c>
+      <c r="P9">
+        <v>-0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="C10">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="D10">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G10">
+        <v>-0.5714285714285713</v>
+      </c>
+      <c r="H10">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="I10">
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="J10">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="K10">
+        <v>-0.4285714285714283</v>
+      </c>
+      <c r="L10">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="M10">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="N10">
+        <v>0.7142857142857145</v>
+      </c>
+      <c r="O10">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="P10">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-1.571428571428571</v>
+      </c>
+      <c r="C11">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="D11">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="E11">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="F11">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="G11">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="H11">
+        <v>-2.428571428571428</v>
+      </c>
+      <c r="I11">
+        <v>-1.142857142857143</v>
+      </c>
+      <c r="J11">
+        <v>-0.4285714285714283</v>
+      </c>
+      <c r="K11">
+        <v>-2.142857142857142</v>
+      </c>
+      <c r="L11">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M11">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="N11">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="O11">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="P11">
+        <v>-0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C12">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D12">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="E12">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="F12">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="G12">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="H12">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I12">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="J12">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="K12">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="O12">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="P12">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="D13">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="E13">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="F13">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="G13">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="H13">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="I13">
+        <v>-0.7142857142857142</v>
+      </c>
+      <c r="J13">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="K13">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="N13">
+        <v>0.1428571428571432</v>
+      </c>
+      <c r="O13">
+        <v>0.7142857142857144</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.4285714285714284</v>
+      </c>
+      <c r="C14">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="D14">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E14">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="F14">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G14">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H14">
+        <v>-1.857142857142857</v>
+      </c>
+      <c r="I14">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="J14">
+        <v>0.7142857142857145</v>
+      </c>
+      <c r="K14">
+        <v>-1.428571428571428</v>
+      </c>
+      <c r="L14">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="M14">
+        <v>0.1428571428571432</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="P14">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-1.285714285714286</v>
+      </c>
+      <c r="C15">
+        <v>0.1428571428571432</v>
+      </c>
+      <c r="D15">
+        <v>0.1428571428571432</v>
+      </c>
+      <c r="E15">
+        <v>0.5714285714285716</v>
+      </c>
+      <c r="F15">
+        <v>-0.2857142857142856</v>
+      </c>
+      <c r="G15">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-1.571428571428571</v>
+      </c>
+      <c r="J15">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K15">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="L15">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="M15">
+        <v>0.7142857142857144</v>
+      </c>
+      <c r="N15">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="O15">
+        <v>-0.4285714285714284</v>
+      </c>
+      <c r="P15">
+        <v>-1.571428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.2857142857142856</v>
+      </c>
+      <c r="C16">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="D16">
+        <v>2.775557561562891E-16</v>
+      </c>
+      <c r="E16">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="F16">
+        <v>-0.2857142857142856</v>
+      </c>
+      <c r="G16">
+        <v>-0.1428571428571427</v>
+      </c>
+      <c r="H16">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="I16">
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="J16">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K16">
+        <v>-0.4285714285714285</v>
+      </c>
+      <c r="L16">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="O16">
+        <v>-1.571428571428571</v>
+      </c>
+      <c r="P16">
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-1.587301587301587</v>
       </c>
       <c r="C2">
@@ -6964,49 +8586,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="D2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="G2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="H2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="I2">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="J2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="K2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="L2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="M2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P2">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7014,49 +8636,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="C3">
-        <v>-0.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7777777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="E3">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="F3">
-        <v>0.1111111111111112</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="G3">
-        <v>0.1111111111111112</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="H3">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="I3">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="J3">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="K3">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="L3">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="M3">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="N3">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="O3">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P3">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7064,49 +8686,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C4">
-        <v>0.7777777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="D4">
-        <v>0.3333333333333333</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="E4">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="F4">
-        <v>0.7777777777777778</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="H4">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="I4">
-        <v>0.5555555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="J4">
-        <v>0.3333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="L4">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="N4">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="O4">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7114,49 +8736,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="C5">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="D5">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="E5">
-        <v>-0.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="G5">
-        <v>0.1111111111111112</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="H5">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="I5">
-        <v>0.7777777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="K5">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L5">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="M5">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="N5">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="O5">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="P5">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7164,49 +8786,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="C6">
-        <v>0.1111111111111112</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="D6">
-        <v>0.7777777777777778</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="E6">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="F6">
-        <v>0.8888888888888891</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="G6">
-        <v>1.111111111111111</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="H6">
-        <v>0.1111111111111112</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="I6">
-        <v>1.333333333333333</v>
+        <v>0.275</v>
       </c>
       <c r="J6">
-        <v>1.111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="K6">
-        <v>0.7777777777777778</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="L6">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="M6">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="P6">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7214,49 +8836,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C7">
-        <v>0.1111111111111112</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D7">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="E7">
-        <v>0.1111111111111112</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="F7">
-        <v>1.111111111111111</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4444444444444444</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="H7">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="I7">
-        <v>1.111111111111111</v>
+        <v>0.275</v>
       </c>
       <c r="J7">
-        <v>1.111111111111111</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K7">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L7">
-        <v>0.1111111111111112</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="M7">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="N7">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="O7">
-        <v>-0.8888888888888888</v>
+        <v>-0.125</v>
       </c>
       <c r="P7">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7264,49 +8886,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C8">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="D8">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="E8">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="F8">
-        <v>0.1111111111111112</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="G8">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="H8">
-        <v>-0.111111111111111</v>
+        <v>-0.02499999999999999</v>
       </c>
       <c r="I8">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111112</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="L8">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="M8">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P8">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7314,49 +8936,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="C9">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D9">
-        <v>0.5555555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="E9">
-        <v>0.7777777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="F9">
-        <v>1.333333333333333</v>
+        <v>0.275</v>
       </c>
       <c r="G9">
-        <v>1.111111111111111</v>
+        <v>0.275</v>
       </c>
       <c r="H9">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I9">
-        <v>0.8888888888888891</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="J9">
-        <v>1.111111111111111</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K9">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="M9">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P9">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7364,49 +8986,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="D10">
-        <v>0.3333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E10">
-        <v>0.3333333333333333</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="F10">
-        <v>1.111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="G10">
-        <v>1.111111111111111</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="H10">
-        <v>0.1111111111111112</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.111111111111111</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="J10">
-        <v>0.6666666666666666</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K10">
-        <v>0.5555555555555556</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M10">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="N10">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="O10">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P10">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7414,49 +9036,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C11">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="D11">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="E11">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F11">
-        <v>0.7777777777777778</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="G11">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="H11">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="I11">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="J11">
-        <v>0.5555555555555556</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="N11">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="O11">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P11">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7464,49 +9086,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C12">
-        <v>0.5555555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D12">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="E12">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="F12">
-        <v>0.5555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="G12">
-        <v>0.1111111111111112</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="H12">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="I12">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="J12">
-        <v>0.3333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="L12">
-        <v>0.1111111111111112</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="M12">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="N12">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="O12">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P12">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7514,49 +9136,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C13">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="E13">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="F13">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="G13">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="H13">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="I13">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="J13">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="L13">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="M13">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P13">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7567,19 +9189,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="D14">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="E14">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7588,25 +9210,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="K14">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="L14">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="O14">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P14">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7614,49 +9236,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="C15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="D15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="E15">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="F15">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="G15">
-        <v>-0.8888888888888888</v>
+        <v>-0.125</v>
       </c>
       <c r="H15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="I15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="J15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="K15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="L15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="M15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="N15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="O15">
-        <v>-1.111111111111111</v>
+        <v>-0.125</v>
       </c>
       <c r="P15">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7664,49 +9286,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="C16">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="E16">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="F16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="G16">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="H16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="I16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="J16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="K16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="L16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="M16">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="N16">
-        <v>-0.2222222222222222</v>
+        <v>-0.125</v>
       </c>
       <c r="O16">
-        <v>-0.4444444444444444</v>
+        <v>-0.125</v>
       </c>
       <c r="P16">
-        <v>-0.6666666666666666</v>
+        <v>-0.125</v>
       </c>
     </row>
   </sheetData>
@@ -7774,49 +9396,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7824,49 +9446,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>-0.111111111111111</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7874,49 +9496,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7924,49 +9546,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>-0.111111111111111</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7974,49 +9596,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0.8888888888888891</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8024,49 +9646,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>-0.8888888888888888</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -8074,49 +9696,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>-0.111111111111111</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -8124,49 +9746,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0.8888888888888891</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8174,49 +9796,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -8224,49 +9846,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -8274,49 +9896,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -8324,49 +9946,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -8374,49 +9996,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -8424,49 +10046,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>-0.8888888888888888</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>-0.4444444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -8474,49 +10096,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>-0.6666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -8584,49 +10206,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8634,49 +10256,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0.3636363636363636</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8684,49 +10306,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8734,49 +10356,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0.5714285714285714</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8784,25 +10406,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -8817,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8834,49 +10456,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.3636363636363636</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.4375</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>0.4545454545454545</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -8884,49 +10506,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0.4545454545454545</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>0.3529411764705883</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0.3636363636363636</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>0.2222222222222222</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -8934,13 +10556,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8949,31 +10571,31 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -8984,49 +10606,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0.4666666666666667</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -9034,46 +10656,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -9087,46 +10709,46 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9134,49 +10756,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>0.3636363636363636</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9184,49 +10806,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>0.2222222222222222</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>0.4285714285714285</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9237,46 +10859,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9284,49 +10906,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
